--- a/Hoja de Items.xlsx
+++ b/Hoja de Items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colme\OneDrive\Escritorio\JWRS - SLIME\slimeGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD240F0D-EEF9-45F7-B6CB-F224FAA8270C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F5407-5FC4-4274-9698-3309501722A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D3D4E4-B6B3-43EA-8741-364C0F2BB5FB}"/>
   </bookViews>
@@ -77,16 +77,16 @@
     <t>Todos los escenarios, assests y personajes han sido modelados y texturizados por nosotros</t>
   </si>
   <si>
-    <t>Todos las canciones y efectos de sonido (excepto 2) han sido creados por nosotros</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hay un menú de configuración accesible desde el menú principal. Se puede escoger idioma, cambiar la sensibilidad y </t>
   </si>
   <si>
-    <t>Menú de tienda y selector de skins. Varios modos de juego.</t>
-  </si>
-  <si>
     <t>El juego es multijugador</t>
+  </si>
+  <si>
+    <t>Todos las canciones y efectos de sonido (excepto 2 SFX) han sido creados por nosotros</t>
+  </si>
+  <si>
+    <t>Menú de tienda y selector de skins. Varios modos de juego. DLC preparado.</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A7859-7277-4F97-BCFF-9A35B605CA31}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3"/>
     </row>
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6"/>
     </row>
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9"/>
     </row>
@@ -857,12 +857,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CD10B1948716B645BAFEE5AE8F7E2C03" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="76adea106c182572796e19179eb1fc12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1f460807-8eea-4434-8772-f5b053a745f6" xmlns:ns4="2e7a5513-e78e-46f4-b45a-c7e516e1b8e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="397db62f838f7a5c482ec44991e7cd57" ns3:_="" ns4:_="">
     <xsd:import namespace="1f460807-8eea-4434-8772-f5b053a745f6"/>
@@ -1085,6 +1079,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1BBB801-C994-46CA-9A01-E70C9AEA4429}">
   <ds:schemaRefs>
@@ -1094,15 +1094,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB40092-E2BD-4424-A256-5B059FC76AB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60774688-B420-4999-93FA-E3B809C01566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1119,4 +1110,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB40092-E2BD-4424-A256-5B059FC76AB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Hoja de Items.xlsx
+++ b/Hoja de Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colme\OneDrive\Escritorio\JWRS - SLIME\slimeGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CentauriGames\slimeGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F5407-5FC4-4274-9698-3309501722A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F836169-F024-4DD9-8493-79779F93CACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D3D4E4-B6B3-43EA-8741-364C0F2BB5FB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>PUNTUACIÓN: Multijugador (juego en red)</t>
   </si>
@@ -86,7 +86,22 @@
     <t>Todos las canciones y efectos de sonido (excepto 2 SFX) han sido creados por nosotros</t>
   </si>
   <si>
-    <t>Menú de tienda y selector de skins. Varios modos de juego. DLC preparado.</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Tanto volumen como sensibilidad de cada jugador es persistente y por tanto se queda almacenado para próximas partidas</t>
+  </si>
+  <si>
+    <t>Actualmente no existe un modo multijugador local ya que existe un modo multijugador en linea</t>
+  </si>
+  <si>
+    <t>Dispone de el idioma castellano e inglés</t>
+  </si>
+  <si>
+    <t>2 efectos de sonido han sido cogidos de internet para la integración en la práctica.</t>
+  </si>
+  <si>
+    <t>Menú de tienda y selector de skins. Varios modos de juego (1v1, 2v2, FFA). DLC preparado. 3 mapas disponibles para jugar.</t>
   </si>
 </sst>
 </file>
@@ -711,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A7859-7277-4F97-BCFF-9A35B605CA31}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,16 +780,24 @@
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F4"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
@@ -785,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6"/>
     </row>
@@ -796,7 +819,9 @@
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -830,7 +855,9 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F10"/>
     </row>
   </sheetData>
@@ -848,15 +875,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CD10B1948716B645BAFEE5AE8F7E2C03" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="76adea106c182572796e19179eb1fc12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1f460807-8eea-4434-8772-f5b053a745f6" xmlns:ns4="2e7a5513-e78e-46f4-b45a-c7e516e1b8e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="397db62f838f7a5c482ec44991e7cd57" ns3:_="" ns4:_="">
     <xsd:import namespace="1f460807-8eea-4434-8772-f5b053a745f6"/>
@@ -1079,6 +1097,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1086,14 +1113,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1BBB801-C994-46CA-9A01-E70C9AEA4429}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60774688-B420-4999-93FA-E3B809C01566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1112,6 +1131,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1BBB801-C994-46CA-9A01-E70C9AEA4429}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB40092-E2BD-4424-A256-5B059FC76AB7}">
   <ds:schemaRefs>
